--- a/data/data_ananlyse/_buy_fv_3_sold_basic/min_0$$sold$$_buy_fv_3__sold_basic$$.xlsx
+++ b/data/data_ananlyse/_buy_fv_3_sold_basic/min_0$$sold$$_buy_fv_3__sold_basic$$.xlsx
@@ -503,7 +503,7 @@
         <v>20090401</v>
       </c>
       <c r="D6">
-        <v>1676.169115701545</v>
+        <v>1676.169115701544</v>
       </c>
       <c r="E6">
         <v>2519.886</v>
@@ -803,7 +803,7 @@
         <v>20090716</v>
       </c>
       <c r="D21">
-        <v>1128.978528251451</v>
+        <v>1128.978528251452</v>
       </c>
       <c r="E21">
         <v>3516.778</v>
@@ -843,7 +843,7 @@
         <v>20090804</v>
       </c>
       <c r="D23">
-        <v>996.9620208481082</v>
+        <v>996.962020848108</v>
       </c>
       <c r="E23">
         <v>3803.061</v>
@@ -883,7 +883,7 @@
         <v>20091117</v>
       </c>
       <c r="D25">
-        <v>5940.681981611052</v>
+        <v>5940.681981611054</v>
       </c>
       <c r="E25">
         <v>3644.962</v>
@@ -1243,7 +1243,7 @@
         <v>20130204</v>
       </c>
       <c r="D43">
-        <v>8082.488363121869</v>
+        <v>8082.488363121867</v>
       </c>
       <c r="E43">
         <v>2753.688</v>
@@ -1263,7 +1263,7 @@
         <v>20130218</v>
       </c>
       <c r="D44">
-        <v>3890.703602985529</v>
+        <v>3890.703602985528</v>
       </c>
       <c r="E44">
         <v>2784.065</v>
@@ -1303,7 +1303,7 @@
         <v>20140904</v>
       </c>
       <c r="D46">
-        <v>4853.283389906708</v>
+        <v>4853.283389906707</v>
       </c>
       <c r="E46">
         <v>2411.934</v>
@@ -1323,7 +1323,7 @@
         <v>20140909</v>
       </c>
       <c r="D47">
-        <v>9016.654090214624</v>
+        <v>9016.654090214626</v>
       </c>
       <c r="E47">
         <v>2452.227000000001</v>
@@ -1383,7 +1383,7 @@
         <v>20141103</v>
       </c>
       <c r="D50">
-        <v>17684.95515153587</v>
+        <v>17684.95515153586</v>
       </c>
       <c r="E50">
         <v>2515.824</v>
@@ -1403,7 +1403,7 @@
         <v>20141110</v>
       </c>
       <c r="D51">
-        <v>4357.315797592298</v>
+        <v>4357.315797592299</v>
       </c>
       <c r="E51">
         <v>2529.83</v>
@@ -1463,7 +1463,7 @@
         <v>20141117</v>
       </c>
       <c r="D54">
-        <v>3752.466729156339</v>
+        <v>3752.466729156338</v>
       </c>
       <c r="E54">
         <v>2613.513</v>
@@ -1903,7 +1903,7 @@
         <v>20150324</v>
       </c>
       <c r="D76">
-        <v>3518.430327954925</v>
+        <v>3518.430327954926</v>
       </c>
       <c r="E76">
         <v>3980.066</v>
@@ -1983,7 +1983,7 @@
         <v>20150407</v>
       </c>
       <c r="D80">
-        <v>3558.524118787032</v>
+        <v>3558.524118787033</v>
       </c>
       <c r="E80">
         <v>4213.894</v>
@@ -2023,7 +2023,7 @@
         <v>20150417</v>
       </c>
       <c r="D82">
-        <v>754.3877047567026</v>
+        <v>754.3877047567029</v>
       </c>
       <c r="E82">
         <v>4578.679</v>
@@ -2103,7 +2103,7 @@
         <v>20150527</v>
       </c>
       <c r="D86">
-        <v>568.5445187716309</v>
+        <v>568.5445187716308</v>
       </c>
       <c r="E86">
         <v>5216.17</v>
@@ -2283,7 +2283,7 @@
         <v>20161130</v>
       </c>
       <c r="D95">
-        <v>3488.443947825056</v>
+        <v>3488.443947825055</v>
       </c>
       <c r="E95">
         <v>3557.6357</v>
@@ -2543,7 +2543,7 @@
         <v>20170907</v>
       </c>
       <c r="D108">
-        <v>1395.949655118824</v>
+        <v>1395.949655118825</v>
       </c>
       <c r="E108">
         <v>3851.688</v>
@@ -2663,7 +2663,7 @@
         <v>20171030</v>
       </c>
       <c r="D114">
-        <v>6470.958861868631</v>
+        <v>6470.958861868632</v>
       </c>
       <c r="E114">
         <v>4022.1641</v>
